--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_483__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_483__Reeval_Sobol_Modell_1.3.xlsx
@@ -6130,13 +6130,13 @@
                   <c:v>78.82733917236328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.01306915283203</c:v>
+                  <c:v>49.01306533813477</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>58.58699035644531</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.88166046142578</c:v>
+                  <c:v>51.88165664672852</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>93.22142791748047</c:v>
@@ -6157,7 +6157,7 @@
                   <c:v>88.72446441650391</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.15810012817383</c:v>
+                  <c:v>27.15809631347656</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>99.13126373291016</c:v>
@@ -6169,7 +6169,7 @@
                   <c:v>77.981201171875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.36346054077148</c:v>
+                  <c:v>54.36345672607422</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>77.77805328369141</c:v>
@@ -6178,10 +6178,10 @@
                   <c:v>78.81486511230469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52.43915939331055</c:v>
+                  <c:v>52.43916702270508</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.12814331054688</c:v>
+                  <c:v>24.12813949584961</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>55.19525909423828</c:v>
@@ -6190,7 +6190,7 @@
                   <c:v>41.86015701293945</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>79.13072204589844</c:v>
+                  <c:v>79.13072967529297</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>68.12838745117188</c:v>
@@ -6202,13 +6202,13 @@
                   <c:v>74.58665466308594</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>81.71750640869141</c:v>
+                  <c:v>81.71749877929688</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>77.6717529296875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>72.78001403808594</c:v>
+                  <c:v>72.78002166748047</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>89.91909790039062</c:v>
@@ -6217,19 +6217,19 @@
                   <c:v>81.46661376953125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>87.84788513183594</c:v>
+                  <c:v>87.84789276123047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78.35166168212891</c:v>
+                  <c:v>78.35165405273438</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>64.83794403076172</c:v>
+                  <c:v>64.83793640136719</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>81.10469818115234</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76.75212860107422</c:v>
+                  <c:v>76.75212097167969</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>71.92813873291016</c:v>
@@ -6241,25 +6241,25 @@
                   <c:v>72.32508850097656</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87.72247314453125</c:v>
+                  <c:v>87.72246551513672</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83.99269104003906</c:v>
+                  <c:v>83.99269866943359</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>55.16729736328125</c:v>
+                  <c:v>55.16729354858398</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>78.09455871582031</c:v>
+                  <c:v>78.09455108642578</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>78.92075347900391</c:v>
+                  <c:v>78.92074584960938</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>95.4239501953125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.14668273925781</c:v>
+                  <c:v>41.14668655395508</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>86.51251983642578</c:v>
@@ -6268,7 +6268,7 @@
                   <c:v>24.81349182128906</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>63.52390670776367</c:v>
+                  <c:v>63.52390289306641</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>100.9216995239258</c:v>
@@ -6283,10 +6283,10 @@
                   <c:v>78.12722015380859</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>60.66748809814453</c:v>
+                  <c:v>60.66748046875</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>63.71487426757812</c:v>
+                  <c:v>63.71486663818359</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>66.85623931884766</c:v>
@@ -6298,7 +6298,7 @@
                   <c:v>53.17105484008789</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>96.62364196777344</c:v>
+                  <c:v>96.62364959716797</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>79.953369140625</c:v>
@@ -6307,7 +6307,7 @@
                   <c:v>81.54918670654297</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>74.55354309082031</c:v>
+                  <c:v>74.55353546142578</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>41.55612945556641</c:v>
@@ -6325,13 +6325,13 @@
                   <c:v>74.5096435546875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>80.82492828369141</c:v>
+                  <c:v>80.82493591308594</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>59.33087539672852</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>73.52847290039062</c:v>
+                  <c:v>73.52848052978516</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>33.05466079711914</c:v>
@@ -6340,28 +6340,28 @@
                   <c:v>82.39988708496094</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>69.90512847900391</c:v>
+                  <c:v>69.90512084960938</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>85.54286956787109</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.30729866027832</c:v>
+                  <c:v>12.30728912353516</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>54.96076965332031</c:v>
+                  <c:v>54.96077346801758</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>43.79455947875977</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.61200332641602</c:v>
+                  <c:v>53.61199951171875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>59.29141998291016</c:v>
+                  <c:v>59.29141235351562</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>77.54257965087891</c:v>
+                  <c:v>77.54258728027344</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>86.66697692871094</c:v>
@@ -6370,13 +6370,13 @@
                   <c:v>68.58766937255859</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>28.06974983215332</c:v>
+                  <c:v>28.06974601745605</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>25.27869033813477</c:v>
+                  <c:v>25.2786865234375</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>95.95405578613281</c:v>
+                  <c:v>95.95404815673828</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>85.629150390625</c:v>
@@ -6400,10 +6400,10 @@
                   <c:v>50.15033721923828</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>76.29557037353516</c:v>
+                  <c:v>76.29556274414062</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>76.94219970703125</c:v>
+                  <c:v>76.94219207763672</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>80.66580200195312</c:v>
@@ -6418,13 +6418,13 @@
                   <c:v>78.54783630371094</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>83.47233581542969</c:v>
+                  <c:v>83.47232818603516</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>82.05043029785156</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>67.21736907958984</c:v>
+                  <c:v>67.21737670898438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7247,7 +7247,7 @@
         <v>48.7815</v>
       </c>
       <c r="F6">
-        <v>49.01306915283203</v>
+        <v>49.01306533813477</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7311,7 +7311,7 @@
         <v>49.0368</v>
       </c>
       <c r="F8">
-        <v>51.88166046142578</v>
+        <v>51.88165664672852</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>38.9871</v>
       </c>
       <c r="F15">
-        <v>27.15810012817383</v>
+        <v>27.15809631347656</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7531,7 +7531,7 @@
         <v>51.4731</v>
       </c>
       <c r="F19">
-        <v>54.36346054077148</v>
+        <v>54.36345672607422</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>54.2093</v>
       </c>
       <c r="F22">
-        <v>52.43915939331055</v>
+        <v>52.43916702270508</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>24.12814331054688</v>
+        <v>24.12813949584961</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>79.8796</v>
       </c>
       <c r="F26">
-        <v>79.13072204589844</v>
+        <v>79.13072967529297</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>78.3235</v>
       </c>
       <c r="F30">
-        <v>81.71750640869141</v>
+        <v>81.71749877929688</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>76.2226</v>
       </c>
       <c r="F32">
-        <v>72.78001403808594</v>
+        <v>72.78002166748047</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F35">
-        <v>87.84788513183594</v>
+        <v>87.84789276123047</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>73.6311</v>
       </c>
       <c r="F36">
-        <v>78.35166168212891</v>
+        <v>78.35165405273438</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>69.36790000000001</v>
       </c>
       <c r="F37">
-        <v>64.83794403076172</v>
+        <v>64.83793640136719</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>74.9051</v>
       </c>
       <c r="F39">
-        <v>76.75212860107422</v>
+        <v>76.75212097167969</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>86.46259999999999</v>
       </c>
       <c r="F43">
-        <v>87.72247314453125</v>
+        <v>87.72246551513672</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>85.48820000000001</v>
       </c>
       <c r="F44">
-        <v>83.99269104003906</v>
+        <v>83.99269866943359</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>39.188</v>
       </c>
       <c r="F45">
-        <v>55.16729736328125</v>
+        <v>55.16729354858398</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>72.2573</v>
       </c>
       <c r="F46">
-        <v>78.09455871582031</v>
+        <v>78.09455108642578</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>75.5748</v>
       </c>
       <c r="F47">
-        <v>78.92075347900391</v>
+        <v>78.92074584960938</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>54.0966</v>
       </c>
       <c r="F49">
-        <v>41.14668273925781</v>
+        <v>41.14668655395508</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>61.0616</v>
       </c>
       <c r="F52">
-        <v>63.52390670776367</v>
+        <v>63.52390289306641</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.977</v>
       </c>
       <c r="F57">
-        <v>60.66748809814453</v>
+        <v>60.66748046875</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>63.71487426757812</v>
+        <v>63.71486663818359</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>90.9457</v>
       </c>
       <c r="F62">
-        <v>96.62364196777344</v>
+        <v>96.62364959716797</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>76.6541</v>
       </c>
       <c r="F65">
-        <v>74.55354309082031</v>
+        <v>74.55353546142578</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>83.73390000000001</v>
       </c>
       <c r="F71">
-        <v>80.82492828369141</v>
+        <v>80.82493591308594</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>81.6987</v>
       </c>
       <c r="F73">
-        <v>73.52847290039062</v>
+        <v>73.52848052978516</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>71.3847</v>
       </c>
       <c r="F76">
-        <v>69.90512847900391</v>
+        <v>69.90512084960938</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>12.30729866027832</v>
+        <v>12.30728912353516</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>50.5684</v>
       </c>
       <c r="F79">
-        <v>54.96076965332031</v>
+        <v>54.96077346801758</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>55.7459</v>
       </c>
       <c r="F81">
-        <v>53.61200332641602</v>
+        <v>53.61199951171875</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>58.0646</v>
       </c>
       <c r="F82">
-        <v>59.29141998291016</v>
+        <v>59.29141235351562</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>74.2764</v>
       </c>
       <c r="F83">
-        <v>77.54257965087891</v>
+        <v>77.54258728027344</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>28.06974983215332</v>
+        <v>28.06974601745605</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>25.27869033813477</v>
+        <v>25.2786865234375</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>96.01479999999999</v>
       </c>
       <c r="F88">
-        <v>95.95405578613281</v>
+        <v>95.95404815673828</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>65.3784</v>
       </c>
       <c r="F96">
-        <v>76.29557037353516</v>
+        <v>76.29556274414062</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>80.28619999999999</v>
       </c>
       <c r="F97">
-        <v>76.94219970703125</v>
+        <v>76.94219207763672</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>80.7841</v>
       </c>
       <c r="F102">
-        <v>83.47233581542969</v>
+        <v>83.47232818603516</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>66.7792</v>
       </c>
       <c r="F104">
-        <v>67.21736907958984</v>
+        <v>67.21737670898438</v>
       </c>
     </row>
     <row r="105" spans="1:6">
